--- a/dataExcel/【AK-47 _ 可燃冰 (破损不堪)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AK-47 _ 可燃冰 (破损不堪)】悠悠有品近1个月-总览.xlsx
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 15:25:03</v>
+        <v>2023-09-19 00:28:54</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>56.96</v>
       </c>
       <c r="C8">
-        <v>68.9</v>
+        <v>72.28</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -449,27 +449,27 @@
         <v>0.08</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 20:42:43</v>
+        <v>2023-09-19 05:38:21</v>
       </c>
       <c r="B9">
-        <v>55.9</v>
+        <v>56.96</v>
       </c>
       <c r="C9">
-        <v>68.9</v>
+        <v>69.75</v>
       </c>
       <c r="D9">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <v>0.1</v>
@@ -478,27 +478,27 @@
         <v>0.08</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 01:56:38</v>
+        <v>2023-09-19 10:47:22</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>56.96</v>
       </c>
       <c r="C10">
-        <v>68.9</v>
+        <v>69.75</v>
       </c>
       <c r="D10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>0.1</v>
@@ -507,10 +507,10 @@
         <v>0.08</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -518,13 +518,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 07:06:37</v>
+        <v>2023-09-19 16:00:16</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>56.8</v>
       </c>
       <c r="C11">
-        <v>68.77</v>
+        <v>69.75</v>
       </c>
       <c r="D11">
         <v>78</v>
@@ -536,10 +536,10 @@
         <v>0.08</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 12:16:37</v>
+        <v>2023-09-19 21:11:09</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>52.16</v>
       </c>
       <c r="C12">
-        <v>68.77</v>
+        <v>69.75</v>
       </c>
       <c r="D12">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>0.1</v>
@@ -565,27 +565,27 @@
         <v>0.08</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 17:26:37</v>
+        <v>2023-09-20 02:17:38</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="C13">
-        <v>68.77</v>
+        <v>68.44</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0.1</v>
@@ -594,27 +594,27 @@
         <v>0.08</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 22:36:35</v>
+        <v>2023-09-20 07:27:47</v>
       </c>
       <c r="B14">
-        <v>55.8</v>
+        <v>52.5</v>
       </c>
       <c r="C14">
-        <v>68.77</v>
+        <v>68.44</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>0.1</v>
@@ -623,27 +623,27 @@
         <v>0.08</v>
       </c>
       <c r="G14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 03:47:31</v>
+        <v>2023-09-20 12:37:45</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15">
-        <v>72.28</v>
+        <v>68.44</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>0.1</v>
@@ -652,65 +652,65 @@
         <v>0.08</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 08:56:50</v>
+        <v>2023-09-20 17:47:54</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16">
-        <v>72.28</v>
+        <v>68.44</v>
       </c>
       <c r="D16">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E16">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F16">
         <v>0.08</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 14:07:28</v>
+        <v>2023-09-20 22:58:03</v>
       </c>
       <c r="B17">
-        <v>56.99</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>72.28</v>
+        <v>68.44</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F17">
         <v>0.08</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>49</v>
@@ -721,170 +721,170 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 19:18:46</v>
+        <v>2023-09-21 04:09:01</v>
       </c>
       <c r="B18">
-        <v>56.99</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>72.28</v>
+        <v>68.44</v>
       </c>
       <c r="D18">
         <v>80</v>
       </c>
       <c r="E18">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F18">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="G18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 00:28:54</v>
+        <v>2023-09-21 09:18:10</v>
       </c>
       <c r="B19">
-        <v>56.96</v>
+        <v>53.86</v>
       </c>
       <c r="C19">
-        <v>72.28</v>
+        <v>68.44</v>
       </c>
       <c r="D19">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F19">
         <v>0.08</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 05:38:21</v>
+        <v>2023-09-21 14:28:25</v>
       </c>
       <c r="B20">
-        <v>56.96</v>
+        <v>53.86</v>
       </c>
       <c r="C20">
-        <v>69.75</v>
+        <v>68.44</v>
       </c>
       <c r="D20">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F20">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 10:47:22</v>
+        <v>2023-09-21 19:40:36</v>
       </c>
       <c r="B21">
-        <v>56.96</v>
+        <v>52.8</v>
       </c>
       <c r="C21">
-        <v>69.75</v>
+        <v>68.44</v>
       </c>
       <c r="D21">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E21">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F21">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 16:00:16</v>
+        <v>2023-09-22 00:49:54</v>
       </c>
       <c r="B22">
-        <v>56.8</v>
+        <v>52</v>
       </c>
       <c r="C22">
-        <v>69.75</v>
+        <v>68.44</v>
       </c>
       <c r="D22">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E22">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F22">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 21:11:09</v>
+        <v>2023-09-22 06:00:41</v>
       </c>
       <c r="B23">
-        <v>52.16</v>
+        <v>52</v>
       </c>
       <c r="C23">
-        <v>69.75</v>
+        <v>65.19</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E23">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F23">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>49</v>
@@ -895,22 +895,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 02:17:38</v>
+        <v>2023-09-22 11:08:36</v>
       </c>
       <c r="B24">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="C24">
-        <v>68.44</v>
+        <v>65.19</v>
       </c>
       <c r="D24">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F24">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -919,59 +919,59 @@
         <v>49</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 07:27:47</v>
+        <v>2023-09-22 16:18:36</v>
       </c>
       <c r="B25">
-        <v>52.5</v>
+        <v>53</v>
       </c>
       <c r="C25">
-        <v>68.44</v>
+        <v>65.19</v>
       </c>
       <c r="D25">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E25">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F25">
         <v>0.08</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25">
         <v>49</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 12:37:45</v>
+        <v>2023-09-22 21:29:15</v>
       </c>
       <c r="B26">
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="C26">
-        <v>68.44</v>
+        <v>65.19</v>
       </c>
       <c r="D26">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F26">
         <v>0.08</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H26">
         <v>49</v>
@@ -982,16 +982,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 17:47:54</v>
+        <v>2023-09-23 02:39:43</v>
       </c>
       <c r="B27">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>68.44</v>
+        <v>65.19</v>
       </c>
       <c r="D27">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>0.09</v>
@@ -1000,27 +1000,27 @@
         <v>0.08</v>
       </c>
       <c r="G27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H27">
         <v>49</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 22:58:03</v>
+        <v>2023-09-23 07:48:52</v>
       </c>
       <c r="B28">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>68.44</v>
+        <v>65.19</v>
       </c>
       <c r="D28">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E28">
         <v>0.09</v>
@@ -1029,27 +1029,27 @@
         <v>0.08</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28">
         <v>49</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 04:09:01</v>
+        <v>2023-09-23 12:58:50</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>68.44</v>
+        <v>65.19</v>
       </c>
       <c r="D29">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>0.09</v>
@@ -1058,242 +1058,242 @@
         <v>0.08</v>
       </c>
       <c r="G29">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H29">
         <v>49</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 09:18:10</v>
+        <v>2023-09-23 18:09:10</v>
       </c>
       <c r="B30">
-        <v>53.86</v>
+        <v>51.99</v>
       </c>
       <c r="C30">
-        <v>68.44</v>
+        <v>65.19</v>
       </c>
       <c r="D30">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E30">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F30">
         <v>0.08</v>
       </c>
       <c r="G30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H30">
         <v>49</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 14:28:25</v>
+        <v>2023-09-23 23:19:17</v>
       </c>
       <c r="B31">
-        <v>53.86</v>
+        <v>51.99</v>
       </c>
       <c r="C31">
-        <v>68.44</v>
+        <v>65.19</v>
       </c>
       <c r="D31">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E31">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F31">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G31">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H31">
         <v>49</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 19:40:36</v>
+        <v>2023-09-24 04:30:02</v>
       </c>
       <c r="B32">
-        <v>52.8</v>
+        <v>51.89</v>
       </c>
       <c r="C32">
-        <v>68.44</v>
+        <v>65.84</v>
       </c>
       <c r="D32">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E32">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F32">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>49</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 00:49:54</v>
+        <v>2023-09-24 09:40:04</v>
       </c>
       <c r="B33">
-        <v>52</v>
+        <v>51.79</v>
       </c>
       <c r="C33">
-        <v>68.44</v>
+        <v>65.84</v>
       </c>
       <c r="D33">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
         <v>0.08</v>
       </c>
-      <c r="F33">
-        <v>0.06</v>
-      </c>
       <c r="G33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H33">
         <v>49</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 06:00:41</v>
+        <v>2023-09-24 14:49:24</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>51.79</v>
       </c>
       <c r="C34">
-        <v>65.19</v>
+        <v>65.84</v>
       </c>
       <c r="D34">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E34">
+        <v>0.1</v>
+      </c>
+      <c r="F34">
         <v>0.08</v>
       </c>
-      <c r="F34">
-        <v>0.06</v>
-      </c>
       <c r="G34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 11:08:36</v>
+        <v>2023-09-24 19:59:59</v>
       </c>
       <c r="B35">
-        <v>52</v>
+        <v>49.7</v>
       </c>
       <c r="C35">
-        <v>65.19</v>
+        <v>65.84</v>
       </c>
       <c r="D35">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F35">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 16:18:36</v>
+        <v>2023-09-25 01:12:19</v>
       </c>
       <c r="B36">
-        <v>53</v>
+        <v>51.58</v>
       </c>
       <c r="C36">
-        <v>65.19</v>
+        <v>65.84</v>
       </c>
       <c r="D36">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E36">
         <v>0.09</v>
       </c>
       <c r="F36">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G36">
         <v>19</v>
       </c>
       <c r="H36">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 21:29:15</v>
+        <v>2023-09-25 06:20:44</v>
       </c>
       <c r="B37">
-        <v>52.5</v>
+        <v>51.58</v>
       </c>
       <c r="C37">
-        <v>65.19</v>
+        <v>66.17</v>
       </c>
       <c r="D37">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <v>0.09</v>
       </c>
       <c r="F37">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G37">
         <v>19</v>
       </c>
       <c r="H37">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I37">
         <v>4</v>
@@ -1301,28 +1301,28 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 02:39:43</v>
+        <v>2023-09-25 11:29:49</v>
       </c>
       <c r="B38">
-        <v>52</v>
+        <v>51.58</v>
       </c>
       <c r="C38">
-        <v>65.19</v>
+        <v>66.17</v>
       </c>
       <c r="D38">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E38">
         <v>0.09</v>
       </c>
       <c r="F38">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G38">
         <v>19</v>
       </c>
       <c r="H38">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -1330,57 +1330,57 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 07:48:52</v>
+        <v>2023-09-25 16:32:32</v>
       </c>
       <c r="B39">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39">
-        <v>65.19</v>
+        <v>66.17</v>
       </c>
       <c r="D39">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E39">
         <v>0.09</v>
       </c>
       <c r="F39">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G39">
         <v>19</v>
       </c>
       <c r="H39">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 12:58:50</v>
+        <v>2023-09-25 21:42:38</v>
       </c>
       <c r="B40">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40">
-        <v>65.19</v>
+        <v>66.17</v>
       </c>
       <c r="D40">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40">
         <v>0.09</v>
       </c>
       <c r="F40">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G40">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -1388,1118 +1388,1118 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 18:09:10</v>
+        <v>2023-09-26 02:52:37</v>
       </c>
       <c r="B41">
-        <v>51.99</v>
+        <v>51.5</v>
       </c>
       <c r="C41">
-        <v>65.19</v>
+        <v>62.2</v>
       </c>
       <c r="D41">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E41">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F41">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 23:19:17</v>
+        <v>2023-09-26 08:03:10</v>
       </c>
       <c r="B42">
-        <v>51.99</v>
+        <v>51.5</v>
       </c>
       <c r="C42">
-        <v>65.19</v>
+        <v>62.2</v>
       </c>
       <c r="D42">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F42">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G42">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 04:30:02</v>
+        <v>2023-09-26 13:12:44</v>
       </c>
       <c r="B43">
-        <v>51.89</v>
+        <v>51.5</v>
       </c>
       <c r="C43">
-        <v>65.84</v>
+        <v>62.2</v>
       </c>
       <c r="D43">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F43">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 09:40:04</v>
+        <v>2023-09-26 18:23:08</v>
       </c>
       <c r="B44">
-        <v>51.79</v>
+        <v>51.9</v>
       </c>
       <c r="C44">
-        <v>65.84</v>
+        <v>62.2</v>
       </c>
       <c r="D44">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E44">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F44">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 14:49:24</v>
+        <v>2023-09-26 23:32:53</v>
       </c>
       <c r="B45">
-        <v>51.79</v>
+        <v>51.42</v>
       </c>
       <c r="C45">
-        <v>65.84</v>
+        <v>62.2</v>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E45">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F45">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G45">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 19:59:59</v>
+        <v>2023-09-27 04:43:34</v>
       </c>
       <c r="B46">
-        <v>49.7</v>
+        <v>51.32</v>
       </c>
       <c r="C46">
-        <v>65.84</v>
+        <v>63.96</v>
       </c>
       <c r="D46">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F46">
         <v>0.07</v>
       </c>
       <c r="G46">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 01:12:19</v>
+        <v>2023-09-27 09:53:43</v>
       </c>
       <c r="B47">
-        <v>51.58</v>
+        <v>51.4</v>
       </c>
       <c r="C47">
-        <v>65.84</v>
+        <v>63.96</v>
       </c>
       <c r="D47">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E47">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F47">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 06:20:44</v>
+        <v>2023-09-27 15:03:03</v>
       </c>
       <c r="B48">
-        <v>51.58</v>
+        <v>51.89</v>
       </c>
       <c r="C48">
-        <v>66.17</v>
+        <v>63.96</v>
       </c>
       <c r="D48">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E48">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F48">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G48">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H48">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 11:29:49</v>
+        <v>2023-09-27 20:13:01</v>
       </c>
       <c r="B49">
-        <v>51.58</v>
+        <v>51.88</v>
       </c>
       <c r="C49">
-        <v>66.17</v>
+        <v>63.96</v>
       </c>
       <c r="D49">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E49">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F49">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H49">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 16:32:32</v>
+        <v>2023-09-28 01:23:00</v>
       </c>
       <c r="B50">
-        <v>51</v>
+        <v>51.87</v>
       </c>
       <c r="C50">
-        <v>66.17</v>
+        <v>63.96</v>
       </c>
       <c r="D50">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E50">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F50">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G50">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 21:42:38</v>
+        <v>2023-09-28 06:33:01</v>
       </c>
       <c r="B51">
-        <v>51</v>
+        <v>51.87</v>
       </c>
       <c r="C51">
-        <v>66.17</v>
+        <v>65.91</v>
       </c>
       <c r="D51">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E51">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F51">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G51">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H51">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-26 02:52:37</v>
+        <v>2023-09-28 11:43:07</v>
       </c>
       <c r="B52">
-        <v>51.5</v>
+        <v>51.86</v>
       </c>
       <c r="C52">
-        <v>62.2</v>
+        <v>65.91</v>
       </c>
       <c r="D52">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F52">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H52">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I52">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 08:03:10</v>
+        <v>2023-09-28 16:53:21</v>
       </c>
       <c r="B53">
-        <v>51.5</v>
+        <v>51.82</v>
       </c>
       <c r="C53">
-        <v>62.2</v>
+        <v>65.91</v>
       </c>
       <c r="D53">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E53">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="F53">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>46</v>
       </c>
       <c r="I53">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 13:12:44</v>
+        <v>2023-09-28 22:03:15</v>
       </c>
       <c r="B54">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="C54">
-        <v>62.2</v>
+        <v>65.91</v>
       </c>
       <c r="D54">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E54">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F54">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G54">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H54">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 18:23:08</v>
+        <v>2023-09-29 03:13:14</v>
       </c>
       <c r="B55">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="C55">
-        <v>62.2</v>
+        <v>66.04</v>
       </c>
       <c r="D55">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F55">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G55">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H55">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I55">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 23:32:53</v>
+        <v>2023-09-29 08:23:43</v>
       </c>
       <c r="B56">
-        <v>51.42</v>
+        <v>51.6</v>
       </c>
       <c r="C56">
-        <v>62.2</v>
+        <v>66.04</v>
       </c>
       <c r="D56">
         <v>84</v>
       </c>
       <c r="E56">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F56">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G56">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H56">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I56">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-27 04:43:34</v>
+        <v>2023-09-29 13:33:21</v>
       </c>
       <c r="B57">
-        <v>51.32</v>
+        <v>51.48</v>
       </c>
       <c r="C57">
-        <v>63.96</v>
+        <v>66.04</v>
       </c>
       <c r="D57">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F57">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
       <c r="G57">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H57">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 09:53:43</v>
+        <v>2023-09-29 18:43:20</v>
       </c>
       <c r="B58">
-        <v>51.4</v>
+        <v>50.01</v>
       </c>
       <c r="C58">
-        <v>63.96</v>
+        <v>66.04</v>
       </c>
       <c r="D58">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E58">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F58">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G58">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H58">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 15:03:03</v>
+        <v>2023-09-29 23:53:19</v>
       </c>
       <c r="B59">
-        <v>51.89</v>
+        <v>50</v>
       </c>
       <c r="C59">
-        <v>63.96</v>
+        <v>66.04</v>
       </c>
       <c r="D59">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E59">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F59">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G59">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H59">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I59">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 20:13:01</v>
+        <v>2023-09-30 04:57:16</v>
       </c>
       <c r="B60">
-        <v>51.88</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>63.96</v>
+        <v>68.31</v>
       </c>
       <c r="D60">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F60">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G60">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H60">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I60">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 01:23:00</v>
+        <v>2023-09-30 10:07:15</v>
       </c>
       <c r="B61">
-        <v>51.87</v>
+        <v>49.66</v>
       </c>
       <c r="C61">
-        <v>63.96</v>
+        <v>68.31</v>
       </c>
       <c r="D61">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E61">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G61">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H61">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 06:33:01</v>
+        <v>2023-09-30 15:17:15</v>
       </c>
       <c r="B62">
-        <v>51.87</v>
+        <v>49.96</v>
       </c>
       <c r="C62">
-        <v>65.91</v>
+        <v>68.31</v>
       </c>
       <c r="D62">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E62">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G62">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H62">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 11:43:07</v>
+        <v>2023-09-30 20:27:14</v>
       </c>
       <c r="B63">
-        <v>51.86</v>
+        <v>48.89</v>
       </c>
       <c r="C63">
-        <v>65.91</v>
+        <v>68.31</v>
       </c>
       <c r="D63">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F63">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G63">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H63">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I63">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 16:53:21</v>
+        <v>2023-10-01 01:37:14</v>
       </c>
       <c r="B64">
-        <v>51.82</v>
+        <v>48.9</v>
       </c>
       <c r="C64">
-        <v>65.91</v>
+        <v>68.31</v>
       </c>
       <c r="D64">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E64">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="F64">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G64">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H64">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 22:03:15</v>
+        <v>2023-10-01 06:47:14</v>
       </c>
       <c r="B65">
-        <v>51.6</v>
+        <v>48.9</v>
       </c>
       <c r="C65">
-        <v>65.91</v>
+        <v>69.55</v>
       </c>
       <c r="D65">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E65">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F65">
         <v>0.04</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H65">
         <v>41</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-29 03:13:14</v>
+        <v>2023-10-01 11:57:14</v>
       </c>
       <c r="B66">
-        <v>51.6</v>
+        <v>48.8</v>
       </c>
       <c r="C66">
-        <v>66.04</v>
+        <v>69.55</v>
       </c>
       <c r="D66">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E66">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
         <v>0.04</v>
       </c>
       <c r="G66">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H66">
-        <v>30</v>
+        <v>41.2</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 08:23:43</v>
+        <v>2023-10-01 17:03:13</v>
       </c>
       <c r="B67">
-        <v>51.6</v>
+        <v>48.9</v>
       </c>
       <c r="C67">
-        <v>66.04</v>
+        <v>69.55</v>
       </c>
       <c r="D67">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H67">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 13:33:21</v>
+        <v>2023-10-01 22:12:57</v>
       </c>
       <c r="B68">
-        <v>51.48</v>
+        <v>48.8</v>
       </c>
       <c r="C68">
-        <v>66.04</v>
+        <v>69.55</v>
       </c>
       <c r="D68">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E68">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F68">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 18:43:20</v>
+        <v>2023-10-02 03:22:00</v>
       </c>
       <c r="B69">
-        <v>50.01</v>
+        <v>48.5</v>
       </c>
       <c r="C69">
-        <v>66.04</v>
+        <v>67.67</v>
       </c>
       <c r="D69">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E69">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F69">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G69">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-29 23:53:19</v>
+        <v>2023-10-02 08:32:56</v>
       </c>
       <c r="B70">
-        <v>50</v>
+        <v>48.5</v>
       </c>
       <c r="C70">
-        <v>66.04</v>
+        <v>67.67</v>
       </c>
       <c r="D70">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E70">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G70">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-30 04:57:16</v>
+        <v>2023-10-02 13:43:51</v>
       </c>
       <c r="B71">
-        <v>50</v>
+        <v>51.9</v>
       </c>
       <c r="C71">
-        <v>68.31</v>
+        <v>67.67</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E71">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F71">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G71">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 10:07:15</v>
+        <v>2023-10-02 18:52:01</v>
       </c>
       <c r="B72">
-        <v>49.66</v>
+        <v>48.9</v>
       </c>
       <c r="C72">
-        <v>68.31</v>
+        <v>67.67</v>
       </c>
       <c r="D72">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E72">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F72">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G72">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 15:17:15</v>
+        <v>2023-10-03 00:02:01</v>
       </c>
       <c r="B73">
-        <v>49.96</v>
+        <v>48</v>
       </c>
       <c r="C73">
-        <v>68.31</v>
+        <v>67.67</v>
       </c>
       <c r="D73">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E73">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F73">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G73">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>41</v>
+        <v>42.3</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 20:27:14</v>
+        <v>2023-10-03 05:11:46</v>
       </c>
       <c r="B74">
-        <v>48.89</v>
+        <v>48</v>
       </c>
       <c r="C74">
-        <v>68.31</v>
+        <v>64.81</v>
       </c>
       <c r="D74">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F74">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G74">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>41</v>
+        <v>42.3</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-01 01:37:14</v>
+        <v>2023-10-03 10:21:45</v>
       </c>
       <c r="B75">
-        <v>48.9</v>
+        <v>51.9</v>
       </c>
       <c r="C75">
-        <v>68.31</v>
+        <v>64.81</v>
       </c>
       <c r="D75">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E75">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G75">
         <v>28</v>
       </c>
       <c r="H75">
-        <v>41</v>
+        <v>42.3</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 06:47:14</v>
+        <v>2023-10-03 15:31:44</v>
       </c>
       <c r="B76">
-        <v>48.9</v>
+        <v>48</v>
       </c>
       <c r="C76">
-        <v>69.55</v>
+        <v>64.81</v>
       </c>
       <c r="D76">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E76">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F76">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G76">
         <v>28</v>
       </c>
       <c r="H76">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I76">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 11:57:14</v>
+        <v>2023-10-03 20:41:50</v>
       </c>
       <c r="B77">
-        <v>48.8</v>
+        <v>51.77</v>
       </c>
       <c r="C77">
-        <v>69.55</v>
+        <v>64.81</v>
       </c>
       <c r="D77">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G77">
         <v>28</v>
       </c>
       <c r="H77">
-        <v>41.2</v>
+        <v>45</v>
       </c>
       <c r="I77">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 17:03:13</v>
+        <v>2023-10-04 01:51:50</v>
       </c>
       <c r="B78">
-        <v>48.9</v>
+        <v>51</v>
       </c>
       <c r="C78">
-        <v>69.55</v>
+        <v>64.81</v>
       </c>
       <c r="D78">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F78">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H78">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I78">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 22:12:57</v>
+        <v>2023-10-04 07:01:49</v>
       </c>
       <c r="B79">
-        <v>48.8</v>
+        <v>51</v>
       </c>
       <c r="C79">
-        <v>69.55</v>
+        <v>68.25</v>
       </c>
       <c r="D79">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E79">
         <v>0.03</v>
@@ -2508,10 +2508,10 @@
         <v>0.02</v>
       </c>
       <c r="G79">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H79">
-        <v>41.2</v>
+        <v>42.3</v>
       </c>
       <c r="I79">
         <v>5</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-02 03:22:00</v>
+        <v>2023-10-04 12:11:48</v>
       </c>
       <c r="B80">
-        <v>48.5</v>
+        <v>50.8</v>
       </c>
       <c r="C80">
-        <v>67.67</v>
+        <v>68.25</v>
       </c>
       <c r="D80">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E80">
         <v>0.03</v>
@@ -2540,24 +2540,24 @@
         <v>29</v>
       </c>
       <c r="H80">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 08:32:56</v>
+        <v>2023-10-04 17:21:47</v>
       </c>
       <c r="B81">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="C81">
-        <v>67.67</v>
+        <v>68.25</v>
       </c>
       <c r="D81">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E81">
         <v>0.03</v>
@@ -2566,126 +2566,126 @@
         <v>0.02</v>
       </c>
       <c r="G81">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>43</v>
       </c>
       <c r="I81">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 13:43:51</v>
+        <v>2023-10-04 22:31:59</v>
       </c>
       <c r="B82">
-        <v>51.9</v>
+        <v>50.8</v>
       </c>
       <c r="C82">
-        <v>67.67</v>
+        <v>68.25</v>
       </c>
       <c r="D82">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E82">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F82">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>43</v>
       </c>
       <c r="I82">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 18:52:01</v>
+        <v>2023-10-05 03:41:54</v>
       </c>
       <c r="B83">
-        <v>48.9</v>
+        <v>51</v>
       </c>
       <c r="C83">
-        <v>67.67</v>
+        <v>71.5</v>
       </c>
       <c r="D83">
         <v>80</v>
       </c>
       <c r="E83">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F83">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>43</v>
       </c>
       <c r="I83">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-03 00:02:01</v>
+        <v>2023-10-05 08:51:54</v>
       </c>
       <c r="B84">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C84">
-        <v>67.67</v>
+        <v>71.5</v>
       </c>
       <c r="D84">
         <v>79</v>
       </c>
       <c r="E84">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F84">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G84">
         <v>29</v>
       </c>
       <c r="H84">
-        <v>42.3</v>
+        <v>43</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-03 05:11:46</v>
+        <v>2023-10-05 14:02:08</v>
       </c>
       <c r="B85">
-        <v>48</v>
+        <v>51.7</v>
       </c>
       <c r="C85">
-        <v>64.81</v>
+        <v>71.5</v>
       </c>
       <c r="D85">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E85">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F85">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G85">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H85">
-        <v>42.3</v>
+        <v>43</v>
       </c>
       <c r="I85">
         <v>6</v>
@@ -2693,28 +2693,28 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 10:21:45</v>
+        <v>2023-10-05 19:12:02</v>
       </c>
       <c r="B86">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="C86">
-        <v>64.81</v>
+        <v>71.5</v>
       </c>
       <c r="D86">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E86">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F86">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G86">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H86">
-        <v>42.3</v>
+        <v>43</v>
       </c>
       <c r="I86">
         <v>6</v>
@@ -2722,141 +2722,141 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 15:31:44</v>
+        <v>2023-10-06 00:22:01</v>
       </c>
       <c r="B87">
-        <v>48</v>
+        <v>51.6</v>
       </c>
       <c r="C87">
-        <v>64.81</v>
+        <v>71.5</v>
       </c>
       <c r="D87">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E87">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F87">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G87">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H87">
         <v>43</v>
       </c>
       <c r="I87">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 20:41:50</v>
+        <v>2023-10-06 04:00:23</v>
       </c>
       <c r="B88">
-        <v>51.77</v>
+        <v>51.6</v>
       </c>
       <c r="C88">
-        <v>64.81</v>
+        <v>71.95</v>
       </c>
       <c r="D88">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F88">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G88">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H88">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-04 01:51:50</v>
+        <v>2023-10-06 04:03:22</v>
       </c>
       <c r="B89">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="C89">
-        <v>64.81</v>
+        <v>71.95</v>
       </c>
       <c r="D89">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E89">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F89">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G89">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H89">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 07:01:49</v>
+        <v>2023-10-06 07:39:13</v>
       </c>
       <c r="B90">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="C90">
-        <v>68.25</v>
+        <v>71.95</v>
       </c>
       <c r="D90">
         <v>77</v>
       </c>
       <c r="E90">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F90">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G90">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H90">
-        <v>42.3</v>
+        <v>43</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 12:11:48</v>
+        <v>2023-10-06 07:44:44</v>
       </c>
       <c r="B91">
-        <v>50.8</v>
+        <v>51.6</v>
       </c>
       <c r="C91">
-        <v>68.25</v>
+        <v>71.95</v>
       </c>
       <c r="D91">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E91">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F91">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G91">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H91">
         <v>43</v>
@@ -2867,45 +2867,45 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 17:21:47</v>
+        <v>2023-10-06 11:20:27</v>
       </c>
       <c r="B92">
-        <v>48</v>
+        <v>51.5</v>
       </c>
       <c r="C92">
-        <v>68.25</v>
+        <v>71.95</v>
       </c>
       <c r="D92">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E92">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F92">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G92">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H92">
         <v>43</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 22:31:59</v>
+        <v>2023-10-06 11:24:48</v>
       </c>
       <c r="B93">
-        <v>50.8</v>
+        <v>51.5</v>
       </c>
       <c r="C93">
-        <v>68.25</v>
+        <v>71.95</v>
       </c>
       <c r="D93">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E93">
         <v>0.04</v>
@@ -2914,7 +2914,7 @@
         <v>0.03</v>
       </c>
       <c r="G93">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H93">
         <v>43</v>
@@ -2925,16 +2925,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-05 03:41:54</v>
+        <v>2023-10-06 14:57:04</v>
       </c>
       <c r="B94">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="C94">
-        <v>71.5</v>
+        <v>71.95</v>
       </c>
       <c r="D94">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E94">
         <v>0.04</v>
@@ -2943,27 +2943,27 @@
         <v>0.03</v>
       </c>
       <c r="G94">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H94">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 08:51:54</v>
+        <v>2023-10-06 15:03:26</v>
       </c>
       <c r="B95">
-        <v>51</v>
+        <v>51.6</v>
       </c>
       <c r="C95">
-        <v>71.5</v>
+        <v>71.95</v>
       </c>
       <c r="D95">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E95">
         <v>0.04</v>
@@ -2972,27 +2972,27 @@
         <v>0.03</v>
       </c>
       <c r="G95">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H95">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 14:02:08</v>
+        <v>2023-10-06 18:39:13</v>
       </c>
       <c r="B96">
-        <v>51.7</v>
+        <v>51.5</v>
       </c>
       <c r="C96">
-        <v>71.5</v>
+        <v>71.95</v>
       </c>
       <c r="D96">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E96">
         <v>0.04</v>
@@ -3001,10 +3001,10 @@
         <v>0.03</v>
       </c>
       <c r="G96">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H96">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I96">
         <v>6</v>
@@ -3012,16 +3012,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 19:12:02</v>
+        <v>2023-10-06 22:17:23</v>
       </c>
       <c r="B97">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="C97">
-        <v>71.5</v>
+        <v>71.95</v>
       </c>
       <c r="D97">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E97">
         <v>0.04</v>
@@ -3030,27 +3030,27 @@
         <v>0.03</v>
       </c>
       <c r="G97">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H97">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I97">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-06 00:22:01</v>
+        <v>2023-10-07 01:56:32</v>
       </c>
       <c r="B98">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="C98">
-        <v>71.5</v>
+        <v>71.95</v>
       </c>
       <c r="D98">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E98">
         <v>0.04</v>
@@ -3059,24 +3059,24 @@
         <v>0.03</v>
       </c>
       <c r="G98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H98">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 04:00:23</v>
+        <v>2023-10-07 05:36:41</v>
       </c>
       <c r="B99">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C99">
-        <v>71.95</v>
+        <v>71.5</v>
       </c>
       <c r="D99">
         <v>77</v>
@@ -3088,24 +3088,24 @@
         <v>0.03</v>
       </c>
       <c r="G99">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H99">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 04:03:22</v>
+        <v>2023-10-07 09:18:09</v>
       </c>
       <c r="B100">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C100">
-        <v>71.95</v>
+        <v>71.5</v>
       </c>
       <c r="D100">
         <v>77</v>
@@ -3117,27 +3117,27 @@
         <v>0.03</v>
       </c>
       <c r="G100">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H100">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 07:39:13</v>
+        <v>2023-10-07 12:56:30</v>
       </c>
       <c r="B101">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="C101">
-        <v>71.95</v>
+        <v>71.5</v>
       </c>
       <c r="D101">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E101">
         <v>0.04</v>
@@ -3146,27 +3146,27 @@
         <v>0.03</v>
       </c>
       <c r="G101">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H101">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 07:44:44</v>
+        <v>2023-10-07 16:33:11</v>
       </c>
       <c r="B102">
-        <v>51.6</v>
+        <v>49</v>
       </c>
       <c r="C102">
-        <v>71.95</v>
+        <v>71.5</v>
       </c>
       <c r="D102">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E102">
         <v>0.04</v>
@@ -3175,27 +3175,27 @@
         <v>0.03</v>
       </c>
       <c r="G102">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H102">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I102">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-06 11:20:27</v>
+        <v>2023-10-07 20:09:25</v>
       </c>
       <c r="B103">
-        <v>51.5</v>
+        <v>51.3</v>
       </c>
       <c r="C103">
-        <v>71.95</v>
+        <v>71.5</v>
       </c>
       <c r="D103">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E103">
         <v>0.04</v>
@@ -3204,27 +3204,27 @@
         <v>0.03</v>
       </c>
       <c r="G103">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H103">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I103">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-06 11:24:48</v>
+        <v>2023-10-07 23:48:05</v>
       </c>
       <c r="B104">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="C104">
-        <v>71.95</v>
+        <v>71.5</v>
       </c>
       <c r="D104">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E104">
         <v>0.04</v>
@@ -3233,10 +3233,10 @@
         <v>0.03</v>
       </c>
       <c r="G104">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H104">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I104">
         <v>6</v>
@@ -3244,16 +3244,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-06 14:57:04</v>
+        <v>2023-10-08 03:26:45</v>
       </c>
       <c r="B105">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="C105">
-        <v>71.95</v>
+        <v>75.33</v>
       </c>
       <c r="D105">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E105">
         <v>0.04</v>
@@ -3265,24 +3265,24 @@
         <v>26</v>
       </c>
       <c r="H105">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I105">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-06 15:03:26</v>
+        <v>2023-10-08 07:09:06</v>
       </c>
       <c r="B106">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="C106">
-        <v>71.95</v>
+        <v>75.33</v>
       </c>
       <c r="D106">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E106">
         <v>0.04</v>
@@ -3291,27 +3291,27 @@
         <v>0.03</v>
       </c>
       <c r="G106">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H106">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I106">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-06 18:39:13</v>
+        <v>2023-10-08 10:47:11</v>
       </c>
       <c r="B107">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="C107">
-        <v>71.95</v>
+        <v>75.33</v>
       </c>
       <c r="D107">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E107">
         <v>0.04</v>
@@ -3320,27 +3320,27 @@
         <v>0.03</v>
       </c>
       <c r="G107">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H107">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I107">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-06 22:17:23</v>
+        <v>2023-10-08 14:27:48</v>
       </c>
       <c r="B108">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="C108">
-        <v>71.95</v>
+        <v>75.33</v>
       </c>
       <c r="D108">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E108">
         <v>0.04</v>
@@ -3349,27 +3349,27 @@
         <v>0.03</v>
       </c>
       <c r="G108">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H108">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I108">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-07 01:56:32</v>
+        <v>2023-10-08 18:07:00</v>
       </c>
       <c r="B109">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="C109">
-        <v>71.95</v>
+        <v>75.33</v>
       </c>
       <c r="D109">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E109">
         <v>0.04</v>
@@ -3378,27 +3378,27 @@
         <v>0.03</v>
       </c>
       <c r="G109">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H109">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I109">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-07 05:36:41</v>
+        <v>2023-10-08 21:46:27</v>
       </c>
       <c r="B110">
-        <v>51.3</v>
+        <v>50.99</v>
       </c>
       <c r="C110">
-        <v>71.5</v>
+        <v>75.33</v>
       </c>
       <c r="D110">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E110">
         <v>0.04</v>
@@ -3407,27 +3407,27 @@
         <v>0.03</v>
       </c>
       <c r="G110">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H110">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I110">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-07 09:18:09</v>
+        <v>2023-10-09 01:22:00</v>
       </c>
       <c r="B111">
-        <v>51.3</v>
+        <v>50.8</v>
       </c>
       <c r="C111">
-        <v>71.5</v>
+        <v>75.33</v>
       </c>
       <c r="D111">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E111">
         <v>0.04</v>
@@ -3436,10 +3436,10 @@
         <v>0.03</v>
       </c>
       <c r="G111">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H111">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I111">
         <v>7</v>
@@ -3447,16 +3447,16 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-07 12:56:30</v>
+        <v>2023-10-09 01:26:37</v>
       </c>
       <c r="B112">
-        <v>51.3</v>
+        <v>50.8</v>
       </c>
       <c r="C112">
-        <v>71.5</v>
+        <v>75.33</v>
       </c>
       <c r="D112">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E112">
         <v>0.04</v>
@@ -3465,27 +3465,27 @@
         <v>0.03</v>
       </c>
       <c r="G112">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H112">
         <v>47</v>
       </c>
       <c r="I112">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-07 16:33:11</v>
+        <v>2023-10-09 05:00:18</v>
       </c>
       <c r="B113">
-        <v>49</v>
+        <v>50.8</v>
       </c>
       <c r="C113">
-        <v>71.5</v>
+        <v>73.64</v>
       </c>
       <c r="D113">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E113">
         <v>0.04</v>
@@ -3494,27 +3494,27 @@
         <v>0.03</v>
       </c>
       <c r="G113">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H113">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I113">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-07 20:09:25</v>
+        <v>2023-10-09 05:05:07</v>
       </c>
       <c r="B114">
-        <v>51.3</v>
+        <v>50.8</v>
       </c>
       <c r="C114">
-        <v>71.5</v>
+        <v>73.64</v>
       </c>
       <c r="D114">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E114">
         <v>0.04</v>
@@ -3523,27 +3523,27 @@
         <v>0.03</v>
       </c>
       <c r="G114">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H114">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I114">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-07 23:48:05</v>
+        <v>2023-10-09 08:40:29</v>
       </c>
       <c r="B115">
-        <v>51.2</v>
+        <v>50.8</v>
       </c>
       <c r="C115">
-        <v>71.5</v>
+        <v>73.64</v>
       </c>
       <c r="D115">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E115">
         <v>0.04</v>
@@ -3552,10 +3552,10 @@
         <v>0.03</v>
       </c>
       <c r="G115">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H115">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I115">
         <v>6</v>
@@ -3563,16 +3563,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-08 03:26:45</v>
+        <v>2023-10-09 12:18:12</v>
       </c>
       <c r="B116">
-        <v>51</v>
+        <v>50.2</v>
       </c>
       <c r="C116">
-        <v>75.33</v>
+        <v>73.64</v>
       </c>
       <c r="D116">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E116">
         <v>0.04</v>
@@ -3581,27 +3581,27 @@
         <v>0.03</v>
       </c>
       <c r="G116">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H116">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I116">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-08 07:09:06</v>
+        <v>2023-10-09 15:58:57</v>
       </c>
       <c r="B117">
-        <v>51</v>
+        <v>50.1</v>
       </c>
       <c r="C117">
-        <v>75.33</v>
+        <v>73.64</v>
       </c>
       <c r="D117">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E117">
         <v>0.04</v>
@@ -3610,24 +3610,24 @@
         <v>0.03</v>
       </c>
       <c r="G117">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H117">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I117">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-08 10:47:11</v>
+        <v>2023-10-09 19:38:55</v>
       </c>
       <c r="B118">
-        <v>51</v>
+        <v>50.2</v>
       </c>
       <c r="C118">
-        <v>75.33</v>
+        <v>73.64</v>
       </c>
       <c r="D118">
         <v>80</v>
@@ -3639,27 +3639,27 @@
         <v>0.03</v>
       </c>
       <c r="G118">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H118">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I118">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-08 14:27:48</v>
+        <v>2023-10-09 23:20:54</v>
       </c>
       <c r="B119">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C119">
-        <v>75.33</v>
+        <v>73.64</v>
       </c>
       <c r="D119">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E119">
         <v>0.04</v>
@@ -3668,27 +3668,27 @@
         <v>0.03</v>
       </c>
       <c r="G119">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H119">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I119">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-08 18:07:00</v>
+        <v>2023-10-10 02:59:43</v>
       </c>
       <c r="B120">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C120">
-        <v>75.33</v>
+        <v>71.83</v>
       </c>
       <c r="D120">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E120">
         <v>0.04</v>
@@ -3697,27 +3697,27 @@
         <v>0.03</v>
       </c>
       <c r="G120">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H120">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I120">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-08 21:46:27</v>
+        <v>2023-10-10 06:35:19</v>
       </c>
       <c r="B121">
-        <v>50.99</v>
+        <v>49.99</v>
       </c>
       <c r="C121">
-        <v>75.33</v>
+        <v>71.83</v>
       </c>
       <c r="D121">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E121">
         <v>0.04</v>
@@ -3729,24 +3729,24 @@
         <v>23</v>
       </c>
       <c r="H121">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I121">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-09 01:22:00</v>
+        <v>2023-10-10 10:10:52</v>
       </c>
       <c r="B122">
-        <v>50.8</v>
+        <v>50</v>
       </c>
       <c r="C122">
-        <v>75.33</v>
+        <v>71.83</v>
       </c>
       <c r="D122">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E122">
         <v>0.04</v>
@@ -3758,7 +3758,7 @@
         <v>22</v>
       </c>
       <c r="H122">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I122">
         <v>7</v>
@@ -3766,13 +3766,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-09 01:26:37</v>
+        <v>2023-10-10 13:50:09</v>
       </c>
       <c r="B123">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="C123">
-        <v>75.33</v>
+        <v>71.83</v>
       </c>
       <c r="D123">
         <v>78</v>
@@ -3787,24 +3787,24 @@
         <v>22</v>
       </c>
       <c r="H123">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I123">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-09 05:00:18</v>
+        <v>2023-10-10 17:27:42</v>
       </c>
       <c r="B124">
-        <v>50.8</v>
+        <v>50</v>
       </c>
       <c r="C124">
-        <v>73.64</v>
+        <v>71.83</v>
       </c>
       <c r="D124">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E124">
         <v>0.04</v>
@@ -3816,140 +3816,140 @@
         <v>22</v>
       </c>
       <c r="H124">
-        <v>47</v>
+        <v>47.3</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-09 05:05:07</v>
+        <v>2023-10-10 21:03:02</v>
       </c>
       <c r="B125">
-        <v>50.8</v>
+        <v>50</v>
       </c>
       <c r="C125">
-        <v>73.64</v>
+        <v>71.83</v>
       </c>
       <c r="D125">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E125">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F125">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G125">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H125">
-        <v>47</v>
+        <v>47.3</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-09 08:40:29</v>
+        <v>2023-10-10 21:09:49</v>
       </c>
       <c r="B126">
-        <v>50.8</v>
+        <v>50</v>
       </c>
       <c r="C126">
-        <v>73.64</v>
+        <v>71.83</v>
       </c>
       <c r="D126">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E126">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F126">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G126">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H126">
-        <v>47</v>
+        <v>47.3</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-09 12:18:12</v>
+        <v>2023-10-11 00:49:17</v>
       </c>
       <c r="B127">
-        <v>50.2</v>
+        <v>51</v>
       </c>
       <c r="C127">
-        <v>73.64</v>
+        <v>71.83</v>
       </c>
       <c r="D127">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E127">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F127">
         <v>0.03</v>
       </c>
       <c r="G127">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H127">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I127">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-09 15:58:57</v>
+        <v>2023-10-11 04:30:08</v>
       </c>
       <c r="B128">
-        <v>50.1</v>
+        <v>51</v>
       </c>
       <c r="C128">
-        <v>73.64</v>
+        <v>75.01</v>
       </c>
       <c r="D128">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E128">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F128">
         <v>0.03</v>
       </c>
       <c r="G128">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H128">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-09 19:38:55</v>
+        <v>2023-10-11 08:08:09</v>
       </c>
       <c r="B129">
-        <v>50.2</v>
+        <v>50.9</v>
       </c>
       <c r="C129">
-        <v>73.64</v>
+        <v>75.01</v>
       </c>
       <c r="D129">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E129">
         <v>0.04</v>
@@ -3961,24 +3961,24 @@
         <v>22</v>
       </c>
       <c r="H129">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-09 23:20:54</v>
+        <v>2023-10-11 11:43:51</v>
       </c>
       <c r="B130">
-        <v>50</v>
+        <v>50.9</v>
       </c>
       <c r="C130">
-        <v>73.64</v>
+        <v>75.01</v>
       </c>
       <c r="D130">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E130">
         <v>0.04</v>
@@ -3990,53 +3990,53 @@
         <v>22</v>
       </c>
       <c r="H130">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I130">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-10 02:59:43</v>
+        <v>2023-10-11 15:21:44</v>
       </c>
       <c r="B131">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="C131">
-        <v>71.83</v>
+        <v>75.01</v>
       </c>
       <c r="D131">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E131">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F131">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G131">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H131">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I131">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-10 06:35:19</v>
+        <v>2023-10-11 18:59:24</v>
       </c>
       <c r="B132">
-        <v>49.99</v>
+        <v>50</v>
       </c>
       <c r="C132">
-        <v>71.83</v>
+        <v>75.01</v>
       </c>
       <c r="D132">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E132">
         <v>0.04</v>
@@ -4045,27 +4045,27 @@
         <v>0.03</v>
       </c>
       <c r="G132">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H132">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I132">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-10 10:10:52</v>
+        <v>2023-10-11 22:40:35</v>
       </c>
       <c r="B133">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="C133">
-        <v>71.83</v>
+        <v>75.01</v>
       </c>
       <c r="D133">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E133">
         <v>0.04</v>
@@ -4074,27 +4074,27 @@
         <v>0.03</v>
       </c>
       <c r="G133">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H133">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I133">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-10 13:50:09</v>
+        <v>2023-10-12 02:20:45</v>
       </c>
       <c r="B134">
-        <v>50.1</v>
+        <v>51</v>
       </c>
       <c r="C134">
         <v>71.83</v>
       </c>
       <c r="D134">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E134">
         <v>0.04</v>
@@ -4103,56 +4103,56 @@
         <v>0.03</v>
       </c>
       <c r="G134">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H134">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I134">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-10 17:27:42</v>
+        <v>2023-10-12 06:01:08</v>
       </c>
       <c r="B135">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C135">
         <v>71.83</v>
       </c>
       <c r="D135">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E135">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F135">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G135">
         <v>22</v>
       </c>
       <c r="H135">
-        <v>47.3</v>
+        <v>48</v>
       </c>
       <c r="I135">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-10 21:03:02</v>
+        <v>2023-10-12 09:39:41</v>
       </c>
       <c r="B136">
-        <v>50</v>
+        <v>50.99</v>
       </c>
       <c r="C136">
         <v>71.83</v>
       </c>
       <c r="D136">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E136">
         <v>0.03</v>
@@ -4161,27 +4161,27 @@
         <v>0.02</v>
       </c>
       <c r="G136">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H136">
-        <v>47.3</v>
+        <v>48</v>
       </c>
       <c r="I136">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-10 21:09:49</v>
+        <v>2023-10-12 13:21:23</v>
       </c>
       <c r="B137">
-        <v>50</v>
+        <v>50.8</v>
       </c>
       <c r="C137">
         <v>71.83</v>
       </c>
       <c r="D137">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E137">
         <v>0.03</v>
@@ -4190,85 +4190,85 @@
         <v>0.02</v>
       </c>
       <c r="G137">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H137">
-        <v>47.3</v>
+        <v>48</v>
       </c>
       <c r="I137">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-11 00:49:17</v>
+        <v>2023-10-12 16:59:56</v>
       </c>
       <c r="B138">
-        <v>51</v>
+        <v>46.66</v>
       </c>
       <c r="C138">
         <v>71.83</v>
       </c>
       <c r="D138">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E138">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F138">
         <v>0.03</v>
       </c>
       <c r="G138">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H138">
         <v>48</v>
       </c>
       <c r="I138">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-11 04:30:08</v>
+        <v>2023-10-12 20:36:32</v>
       </c>
       <c r="B139">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="C139">
-        <v>75.01</v>
+        <v>71.83</v>
       </c>
       <c r="D139">
         <v>76</v>
       </c>
       <c r="E139">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F139">
         <v>0.03</v>
       </c>
       <c r="G139">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H139">
         <v>48</v>
       </c>
       <c r="I139">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-11 08:08:09</v>
+        <v>2023-10-13 00:11:42</v>
       </c>
       <c r="B140">
-        <v>50.9</v>
+        <v>49.8</v>
       </c>
       <c r="C140">
-        <v>75.01</v>
+        <v>71.83</v>
       </c>
       <c r="D140">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E140">
         <v>0.04</v>
@@ -4277,27 +4277,27 @@
         <v>0.03</v>
       </c>
       <c r="G140">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H140">
         <v>48</v>
       </c>
       <c r="I140">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-11 11:43:51</v>
+        <v>2023-10-13 03:51:33</v>
       </c>
       <c r="B141">
-        <v>50.9</v>
+        <v>49.8</v>
       </c>
       <c r="C141">
-        <v>75.01</v>
+        <v>73.84</v>
       </c>
       <c r="D141">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E141">
         <v>0.04</v>
@@ -4306,56 +4306,56 @@
         <v>0.03</v>
       </c>
       <c r="G141">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H141">
         <v>48</v>
       </c>
       <c r="I141">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-11 15:21:44</v>
+        <v>2023-10-13 07:29:52</v>
       </c>
       <c r="B142">
-        <v>50.5</v>
+        <v>49.7</v>
       </c>
       <c r="C142">
-        <v>75.01</v>
+        <v>73.84</v>
       </c>
       <c r="D142">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E142">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F142">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G142">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H142">
         <v>48</v>
       </c>
       <c r="I142">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-11 18:59:24</v>
+        <v>2023-10-13 11:11:14</v>
       </c>
       <c r="B143">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="C143">
-        <v>75.01</v>
+        <v>73.84</v>
       </c>
       <c r="D143">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E143">
         <v>0.04</v>
@@ -4367,24 +4367,24 @@
         <v>21</v>
       </c>
       <c r="H143">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I143">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-11 22:40:35</v>
+        <v>2023-10-13 14:50:45</v>
       </c>
       <c r="B144">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="C144">
-        <v>75.01</v>
+        <v>73.84</v>
       </c>
       <c r="D144">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E144">
         <v>0.04</v>
@@ -4399,21 +4399,21 @@
         <v>48</v>
       </c>
       <c r="I144">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-12 02:20:45</v>
+        <v>2023-10-13 20:02:42</v>
       </c>
       <c r="B145">
-        <v>51</v>
+        <v>50.99</v>
       </c>
       <c r="C145">
-        <v>71.83</v>
+        <v>73.84</v>
       </c>
       <c r="D145">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E145">
         <v>0.04</v>
@@ -4433,103 +4433,103 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-12 06:01:08</v>
+        <v>2023-10-14 01:10:47</v>
       </c>
       <c r="B146">
-        <v>51</v>
+        <v>50.99</v>
       </c>
       <c r="C146">
-        <v>71.83</v>
+        <v>73.84</v>
       </c>
       <c r="D146">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E146">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F146">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G146">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H146">
         <v>48</v>
       </c>
       <c r="I146">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-12 09:39:41</v>
+        <v>2023-10-14 06:20:03</v>
       </c>
       <c r="B147">
         <v>50.99</v>
       </c>
       <c r="C147">
-        <v>71.83</v>
+        <v>68.44</v>
       </c>
       <c r="D147">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E147">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F147">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G147">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H147">
         <v>48</v>
       </c>
       <c r="I147">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-12 13:21:23</v>
+        <v>2023-10-14 11:30:10</v>
       </c>
       <c r="B148">
-        <v>50.8</v>
+        <v>50.99</v>
       </c>
       <c r="C148">
-        <v>71.83</v>
+        <v>68.44</v>
       </c>
       <c r="D148">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E148">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F148">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G148">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H148">
         <v>48</v>
       </c>
       <c r="I148">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-12 16:59:56</v>
+        <v>2023-10-14 16:39:07</v>
       </c>
       <c r="B149">
-        <v>46.66</v>
+        <v>50.7</v>
       </c>
       <c r="C149">
-        <v>71.83</v>
+        <v>68.44</v>
       </c>
       <c r="D149">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E149">
         <v>0.04</v>
@@ -4544,21 +4544,21 @@
         <v>48</v>
       </c>
       <c r="I149">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-12 20:36:32</v>
+        <v>2023-10-14 21:51:21</v>
       </c>
       <c r="B150">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="C150">
-        <v>71.83</v>
+        <v>68.44</v>
       </c>
       <c r="D150">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E150">
         <v>0.04</v>
@@ -4567,27 +4567,27 @@
         <v>0.03</v>
       </c>
       <c r="G150">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H150">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I150">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-13 00:11:42</v>
+        <v>2023-10-15 02:59:15</v>
       </c>
       <c r="B151">
-        <v>49.8</v>
+        <v>50.99</v>
       </c>
       <c r="C151">
-        <v>71.83</v>
+        <v>66.3</v>
       </c>
       <c r="D151">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E151">
         <v>0.04</v>
@@ -4599,21 +4599,21 @@
         <v>21</v>
       </c>
       <c r="H151">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I151">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-13 03:51:33</v>
+        <v>2023-10-15 08:09:15</v>
       </c>
       <c r="B152">
-        <v>49.8</v>
+        <v>50.99</v>
       </c>
       <c r="C152">
-        <v>73.84</v>
+        <v>66.3</v>
       </c>
       <c r="D152">
         <v>73</v>
@@ -4628,24 +4628,24 @@
         <v>21</v>
       </c>
       <c r="H152">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I152">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-13 07:29:52</v>
+        <v>2023-10-15 13:19:14</v>
       </c>
       <c r="B153">
-        <v>49.7</v>
+        <v>50.99</v>
       </c>
       <c r="C153">
-        <v>73.84</v>
+        <v>66.3</v>
       </c>
       <c r="D153">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E153">
         <v>0.04</v>
@@ -4654,27 +4654,27 @@
         <v>0.03</v>
       </c>
       <c r="G153">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H153">
         <v>48</v>
       </c>
       <c r="I153">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-13 11:11:14</v>
+        <v>2023-10-15 18:29:15</v>
       </c>
       <c r="B154">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="C154">
-        <v>73.84</v>
+        <v>66.3</v>
       </c>
       <c r="D154">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E154">
         <v>0.04</v>
@@ -4683,27 +4683,27 @@
         <v>0.03</v>
       </c>
       <c r="G154">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H154">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I154">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-13 14:50:45</v>
+        <v>2023-10-15 23:39:13</v>
       </c>
       <c r="B155">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C155">
-        <v>73.84</v>
+        <v>66.3</v>
       </c>
       <c r="D155">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E155">
         <v>0.04</v>
@@ -4712,27 +4712,27 @@
         <v>0.03</v>
       </c>
       <c r="G155">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H155">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I155">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-13 20:02:42</v>
+        <v>2023-10-16 04:49:13</v>
       </c>
       <c r="B156">
-        <v>50.99</v>
+        <v>49.9</v>
       </c>
       <c r="C156">
-        <v>73.84</v>
+        <v>74.56</v>
       </c>
       <c r="D156">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E156">
         <v>0.04</v>
@@ -4744,21 +4744,21 @@
         <v>21</v>
       </c>
       <c r="H156">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I156">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-14 01:10:47</v>
+        <v>2023-10-16 09:59:50</v>
       </c>
       <c r="B157">
-        <v>50.99</v>
+        <v>50</v>
       </c>
       <c r="C157">
-        <v>73.84</v>
+        <v>74.56</v>
       </c>
       <c r="D157">
         <v>75</v>
@@ -4773,24 +4773,24 @@
         <v>21</v>
       </c>
       <c r="H157">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I157">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-14 06:20:03</v>
+        <v>2023-10-16 15:09:21</v>
       </c>
       <c r="B158">
-        <v>50.99</v>
+        <v>49.9</v>
       </c>
       <c r="C158">
-        <v>68.44</v>
+        <v>74.56</v>
       </c>
       <c r="D158">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E158">
         <v>0.04</v>
@@ -4802,24 +4802,24 @@
         <v>21</v>
       </c>
       <c r="H158">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I158">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-14 11:30:10</v>
+        <v>2023-10-16 20:19:19</v>
       </c>
       <c r="B159">
-        <v>50.99</v>
+        <v>50.48</v>
       </c>
       <c r="C159">
-        <v>68.44</v>
+        <v>74.56</v>
       </c>
       <c r="D159">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E159">
         <v>0.04</v>
@@ -4828,10 +4828,10 @@
         <v>0.03</v>
       </c>
       <c r="G159">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H159">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I159">
         <v>13</v>
@@ -4839,16 +4839,16 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-14 16:39:07</v>
+        <v>2023-10-17 01:29:18</v>
       </c>
       <c r="B160">
-        <v>50.7</v>
+        <v>50.38</v>
       </c>
       <c r="C160">
-        <v>68.44</v>
+        <v>74.56</v>
       </c>
       <c r="D160">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E160">
         <v>0.04</v>
@@ -4857,27 +4857,27 @@
         <v>0.03</v>
       </c>
       <c r="G160">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H160">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I160">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-14 21:51:21</v>
+        <v>2023-10-17 06:39:17</v>
       </c>
       <c r="B161">
-        <v>50</v>
+        <v>50.38</v>
       </c>
       <c r="C161">
-        <v>68.44</v>
+        <v>73.45</v>
       </c>
       <c r="D161">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E161">
         <v>0.04</v>
@@ -4886,27 +4886,27 @@
         <v>0.03</v>
       </c>
       <c r="G161">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H161">
         <v>45</v>
       </c>
       <c r="I161">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-15 02:59:15</v>
+        <v>2023-10-17 11:49:17</v>
       </c>
       <c r="B162">
-        <v>50.99</v>
+        <v>50.36</v>
       </c>
       <c r="C162">
-        <v>66.3</v>
+        <v>73.45</v>
       </c>
       <c r="D162">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E162">
         <v>0.04</v>
@@ -4921,21 +4921,21 @@
         <v>46</v>
       </c>
       <c r="I162">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-15 08:09:15</v>
+        <v>2023-10-17 16:59:16</v>
       </c>
       <c r="B163">
-        <v>50.99</v>
+        <v>50.27</v>
       </c>
       <c r="C163">
-        <v>66.3</v>
+        <v>73.45</v>
       </c>
       <c r="D163">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E163">
         <v>0.04</v>
@@ -4944,27 +4944,27 @@
         <v>0.03</v>
       </c>
       <c r="G163">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H163">
         <v>46</v>
       </c>
       <c r="I163">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-15 13:19:14</v>
+        <v>2023-10-17 22:09:15</v>
       </c>
       <c r="B164">
-        <v>50.99</v>
+        <v>50</v>
       </c>
       <c r="C164">
-        <v>66.3</v>
+        <v>73.45</v>
       </c>
       <c r="D164">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E164">
         <v>0.04</v>
@@ -4973,10 +4973,10 @@
         <v>0.03</v>
       </c>
       <c r="G164">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H164">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I164">
         <v>13</v>
@@ -4984,16 +4984,16 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-15 18:29:15</v>
+        <v>2023-10-18 03:20:16</v>
       </c>
       <c r="B165">
-        <v>50</v>
+        <v>49.79</v>
       </c>
       <c r="C165">
-        <v>66.3</v>
+        <v>73.45</v>
       </c>
       <c r="D165">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E165">
         <v>0.04</v>
@@ -5005,24 +5005,24 @@
         <v>22</v>
       </c>
       <c r="H165">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I165">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-15 23:39:13</v>
+        <v>2023-10-18 08:29:49</v>
       </c>
       <c r="B166">
-        <v>50</v>
+        <v>49.78</v>
       </c>
       <c r="C166">
-        <v>66.3</v>
+        <v>73.45</v>
       </c>
       <c r="D166">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E166">
         <v>0.04</v>
@@ -5034,24 +5034,24 @@
         <v>22</v>
       </c>
       <c r="H166">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I166">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-16 04:49:13</v>
+        <v>2023-10-18 13:39:31</v>
       </c>
       <c r="B167">
-        <v>49.9</v>
+        <v>46</v>
       </c>
       <c r="C167">
-        <v>74.56</v>
+        <v>73.45</v>
       </c>
       <c r="D167">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E167">
         <v>0.04</v>
@@ -5060,42 +5060,42 @@
         <v>0.03</v>
       </c>
       <c r="G167">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H167">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I167">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-16 09:59:50</v>
+        <v>2023-10-18 18:49:31</v>
       </c>
       <c r="B168">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="C168">
-        <v>74.56</v>
+        <v>73.45</v>
       </c>
       <c r="D168">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E168">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F168">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G168">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H168">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I168">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
